--- a/public/users.xlsx
+++ b/public/users.xlsx
@@ -139,7 +139,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -162,19 +162,39 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Organization</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Sectors</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
           <t>Groups</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Business name</t>
         </is>
       </c>
     </row>
     <row collapsed="" customFormat="false" customHeight="" hidden="" ht="12.1" outlineLevel="0" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Greco Roberto</t>
+          <t>Roberto Greco</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -184,10 +204,36 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>international and intergovernmental organizations</t>
-        </is>
-      </c>
-      <c r="D2" s="3"/>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Square</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>31-50</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>other
+IT</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>other
+information</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/public/users.xlsx
+++ b/public/users.xlsx
@@ -139,7 +139,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -152,88 +152,170 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Nome</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
+          <t>Cognome</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Country</t>
-        </is>
-      </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>Organization</t>
+          <t>Categoria</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Ente di appartenenza</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>Session 1</t>
         </is>
       </c>
       <c r="G1" s="2" t="inlineStr">
         <is>
-          <t>Sectors</t>
+          <t>Session 2</t>
         </is>
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t>Groups</t>
+          <t>Session 3</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Session 4</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>Session 5</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>Session 6</t>
         </is>
       </c>
     </row>
     <row collapsed="" customFormat="false" customHeight="" hidden="" ht="12.1" outlineLevel="0" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Roberto Greco</t>
+          <t>Roberto</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
+          <t>Greco</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
           <t>grecomarzano@gmail.com</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>Square</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>31-50</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>other
-IT</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>other
-information</t>
-        </is>
-      </c>
+          <t>ente_pubblico</t>
+        </is>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row collapsed="" customFormat="false" customHeight="" hidden="" ht="12.1" outlineLevel="0" r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Roberto</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Greco</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>grecomarzano@gmail.com</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>universita</t>
+        </is>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>Day 4 mod :: 03/06/2021 8:00-8:00</t>
+        </is>
+      </c>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>Day 5 modificata :: 04/06/2021 8:00-8:00</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="" customFormat="false" customHeight="" hidden="" ht="12.1" outlineLevel="0" r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Roberto</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Greco M</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>grecomarzano@gmail.com</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>ente_pubblico</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>Day 1 mod :: 31/05/2021 8:00-8:00</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>Day 2 mod :: 01/06/2021 8:00-8:00</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>Day 3 mod :: 02/06/2021 8:00-8:00</t>
+        </is>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
